--- a/InterfaceAuto/server/Intelligent_judgement/Intelligent_judgement.xlsx
+++ b/InterfaceAuto/server/Intelligent_judgement/Intelligent_judgement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510DF3C5-4C35-4F29-8A16-747BF0AE103F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691E5B3-B3DC-4CA1-85AF-C64C3A6135E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14715" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_result" sheetId="1" r:id="rId1"/>
@@ -107,17 +107,6 @@
     <t>case5</t>
   </si>
   <si>
-    <t>Url=http://61.155.9.140:6094/api/plot/edit
-id=cb1b7741fea1298628f212e977a12a29
-sen={}
-tags=dumps["stealing_for_relatively_large_money01"]
-numTags=dumps[{"name":"amount_201","num":25725},{"name":"count_201","num":5}]
-name=吴跃
-party_name=吴跃
-causeId=201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Url=http://192.168.11.98:7273/api/decision_result/get_tags
 tagIds=dumps["RSGSZJZX_20170110_143103"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,21 +181,33 @@
   <si>
     <t>username=jsgy
 province_id=3
-case_info_id=904aed058caeaa988f1bccdefe0ee8ea
-case_cause_id=201
-party_name=任某
-edit_params=dumps[{"type":0,"name":"detention","value":10}]
-tag_params=[[] ,[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=jsgy
-province_id=3
 case_info_id=7b21ea96d2e635fabc565a56ed8f3f2d
 party_name=任某
 case_cause_id=201
 edit_params=dumps[{"type":0,"name":"detention","value":10}]
 tag_params=[[] ,[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://192.168.11.98:6094/api/plot/edit
+id=cb1b7741fea1298628f212e977a12a29
+sen={}
+tags=dumps["stealing_for_relatively_large_money01"]
+numTags=dumps[{"name":"amount_201","num":25725},{"name":"count_201","num":5}]
+name=吴跃
+party_name=吴跃
+causeId=201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=jsgy
+province_id=3
+case_info_id=cb1b7741fea1298628f212e977a12a29
+case_cause_id=201
+party_name=吴跃
+edit_params=[]
+tag_params=[]
+sequences=dumps{"firstsequence":[],"secondsequence":[],"power":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,13 +539,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -637,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
@@ -645,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -659,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -673,13 +674,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -687,13 +688,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -701,13 +702,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +723,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -764,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_judgement/Intelligent_judgement.xlsx
+++ b/InterfaceAuto/server/Intelligent_judgement/Intelligent_judgement.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691E5B3-B3DC-4CA1-85AF-C64C3A6135E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17760" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="decision_result" sheetId="1" r:id="rId1"/>
     <sheet name="plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,33 +21,27 @@
   </si>
   <si>
     <t>CaseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例描述</t>
   </si>
   <si>
     <t>QuotoSituation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CaseExcept</t>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>case1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>similar_cases_history</t>
@@ -62,61 +50,50 @@
     <t>username=jsgy
 provinceId=3
 case_info_id=904aed058caeaa988f1bccdefe0ee8ea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case2</t>
   </si>
   <si>
     <t>case_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_detail2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>username=jsgy
 id=904aed058caeaa988f1bccdefe0ee8ea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>case_detail2</t>
   </si>
   <si>
     <t>id=904aed058caeaa988f1bccdefe0ee8ea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case2</t>
-  </si>
-  <si>
-    <t>case3</t>
+  </si>
+  <si>
+    <t>case4</t>
   </si>
   <si>
     <t>search_tags</t>
   </si>
   <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>case4</t>
-  </si>
-  <si>
     <t>case_cause_id=164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case5</t>
   </si>
   <si>
     <t>get_tags</t>
-  </si>
-  <si>
-    <t>case5</t>
   </si>
   <si>
     <t>Url=http://192.168.11.98:7273/api/decision_result/get_tags
 tagIds=dumps["RSGSZJZX_20170110_143103"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case6</t>
   </si>
   <si>
     <t>case_similar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case6</t>
   </si>
   <si>
     <t>case_info_id=cb1b7741fea1298628f212e977a12a29
@@ -131,14 +108,12 @@
 time_option=10
 similar_option=50
 location_params=dumps{"type":2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case7</t>
   </si>
   <si>
     <t>case_simialr_statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case7</t>
   </si>
   <si>
     <t>case_info_id=cb1b7741fea1298628f212e977a12a29
@@ -151,32 +126,22 @@
 time_option=10
 similar_option=50
 location_params=dumps{"type":2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case8</t>
   </si>
   <si>
     <t>case_laws</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case8</t>
   </si>
   <si>
     <t>case_cause_id=201
 case_info_id=7b21ea96d2e635fabc565a56ed8f3f2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case9</t>
   </si>
   <si>
     <t>case_predict</t>
-  </si>
-  <si>
-    <t>case9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_regular</t>
-  </si>
-  <si>
-    <t>case10</t>
   </si>
   <si>
     <t>username=jsgy
@@ -186,18 +151,12 @@
 case_cause_id=201
 edit_params=dumps[{"type":0,"name":"detention","value":10}]
 tag_params=[[] ,[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://192.168.11.98:6094/api/plot/edit
-id=cb1b7741fea1298628f212e977a12a29
-sen={}
-tags=dumps["stealing_for_relatively_large_money01"]
-numTags=dumps[{"name":"amount_201","num":25725},{"name":"count_201","num":5}]
-name=吴跃
-party_name=吴跃
-causeId=201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case10</t>
+  </si>
+  <si>
+    <t>adjust_regular</t>
   </si>
   <si>
     <t>username=jsgy
@@ -208,38 +167,386 @@
 edit_params=[]
 tag_params=[]
 sequences=dumps{"firstsequence":[],"secondsequence":[],"power":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>Url=http://192.168.11.98:6095/api/plot/edit
+id=cb1b7741fea1298628f212e977a12a29
+sen={}
+tags=dumps["stealing_for_relatively_large_money01"]
+numTags=dumps[{"name":"amount_201","num":25725},{"name":"count_201","num":5}]
+name=吴跃
+party_name=吴跃
+causeId=201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -247,9 +554,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -257,17 +806,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -316,7 +909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -351,7 +944,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -525,30 +1118,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" ht="42.75" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -585,153 +1173,154 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" ht="42.75" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="7" ht="185.25" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="156.75" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" ht="28.5" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="114" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="128.25" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE389-D038-4D61-8C47-8FE90ECE41DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="6" max="6" width="54.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="128.25" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -762,14 +1351,14 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>